--- a/data/trans_orig/EJER_MOD_TIEMPO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/EJER_MOD_TIEMPO-Clase-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nº medio de minutos/día en los que se realiza actividad física moderada</t>
+          <t>Nº medio de minutos/día en los que se realiza actividad física moderada (tasa de respuesta: 98,75%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/EJER_MOD_TIEMPO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/EJER_MOD_TIEMPO-Clase-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>44,85</t>
+          <t>44,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>46,19</t>
+          <t>42,78</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>45,53</t>
+          <t>43,51</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>38,75; 52,7</t>
+          <t>38,39; 51,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>28,05; 36,97</t>
+          <t>28,41; 36,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>28,31; 37,02</t>
+          <t>28,36; 37,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>40,77; 54,55</t>
+          <t>37,3; 49,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>35,69; 44,14</t>
+          <t>35,69; 43,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,41; 27,93</t>
+          <t>21,33; 28,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>41,09; 50,77</t>
+          <t>39,49; 48,09</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>33,04; 38,92</t>
+          <t>32,84; 38,84</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>26,04; 31,31</t>
+          <t>25,86; 31,39</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>37,76</t>
+          <t>35,64</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>31,48</t>
+          <t>32,36</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>34,11</t>
+          <t>33,88</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>31,01; 44,96</t>
+          <t>29,03; 45,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>29,66; 39,42</t>
+          <t>29,83; 39,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,83; 27,79</t>
+          <t>18,69; 28,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,71; 37,31</t>
+          <t>27,4; 38,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,88; 33,17</t>
+          <t>25,91; 33,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,44; 20,14</t>
+          <t>13,34; 20,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,76; 38,6</t>
+          <t>29,53; 39,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>29,19; 35,29</t>
+          <t>29,19; 35,59</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,84; 22,08</t>
+          <t>16,58; 22,12</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>41,19</t>
+          <t>42,16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>29,79</t>
+          <t>28,42</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>37,86</t>
+          <t>38,52</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>35,09; 48,03</t>
+          <t>34,82; 49,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,35; 38,66</t>
+          <t>4,5; 38,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,22; 39,81</t>
+          <t>17,01; 40,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,39; 42,55</t>
+          <t>19,62; 39,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,88; 27,94</t>
+          <t>17,46; 29,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,52; 18,73</t>
+          <t>8,25; 18,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>33,1; 44,15</t>
+          <t>33,27; 44,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,81; 33,92</t>
+          <t>5,76; 34,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,16; 30,13</t>
+          <t>15,26; 30,92</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>40,86</t>
+          <t>45,03</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>28,81</t>
+          <t>33,29</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>34,56</t>
+          <t>38,99</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>35,37; 48,38</t>
+          <t>37,37; 55,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,52; 41,58</t>
+          <t>30,5; 42,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,97; 33,4</t>
+          <t>16,25; 35,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,08; 34,44</t>
+          <t>27,22; 41,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,81; 30,32</t>
+          <t>7,22; 30,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,59; 18,36</t>
+          <t>10,7; 18,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,83; 39,18</t>
+          <t>33,9; 44,51</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,15; 33,93</t>
+          <t>16,27; 33,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,58; 23,76</t>
+          <t>14,11; 23,05</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>46,24</t>
+          <t>55,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>20,2</t>
+          <t>26,93</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>28,94</t>
+          <t>37,38</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>36,47; 58,62</t>
+          <t>42,06; 70,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>29,78; 45,25</t>
+          <t>30,02; 46,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,17 +1299,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,04; 26,45</t>
+          <t>11,22; 25,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,26; 25,62</t>
+          <t>20,83; 37,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,61; 25,75</t>
+          <t>11,09; 25,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,47; 16,3</t>
+          <t>7,0; 15,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>24,45; 35,35</t>
+          <t>30,97; 45,46</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16,74; 30,48</t>
+          <t>17,3; 30,42</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,82; 17,58</t>
+          <t>9,96; 17,56</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>46,14</t>
+          <t>45,33</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,94</t>
+          <t>23,29</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>24,95</t>
+          <t>29,48</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>36,13; 57,4</t>
+          <t>32,88; 57,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>39,79; 64,84</t>
+          <t>39,49; 65,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,08; 37,18</t>
+          <t>15,54; 37,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,91; 23,77</t>
+          <t>17,86; 31,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,9; 19,81</t>
+          <t>14,82; 19,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,65; 17,82</t>
+          <t>8,66; 18,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,19; 29,9</t>
+          <t>24,33; 35,72</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>21,89; 30,14</t>
+          <t>21,65; 29,92</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,74; 22,04</t>
+          <t>13,02; 22,34</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>42,27</t>
+          <t>43,94</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>29,72</t>
+          <t>32,55</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>35,5</t>
+          <t>37,97</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>38,98; 45,27</t>
+          <t>40,29; 47,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>20,79; 36,83</t>
+          <t>20,53; 36,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,59; 28,63</t>
+          <t>22,93; 29,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,44; 32,21</t>
+          <t>29,85; 35,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,23; 26,72</t>
+          <t>16,87; 26,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,4; 18,74</t>
+          <t>15,54; 18,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>33,53; 37,75</t>
+          <t>35,73; 40,48</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>22,42; 31,06</t>
+          <t>22,52; 30,83</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>19,51; 23,0</t>
+          <t>19,54; 22,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/EJER_MOD_TIEMPO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/EJER_MOD_TIEMPO-Clase-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>32,56</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>32,22</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>47,29</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>44,29</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>32,66</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>47,29</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>32,22</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>38,6</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>24,55</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>42,39</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>42,78</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>39,69</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>42,39</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>24,55</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>35,3</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>28,34</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>44,93</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>43,51</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>35,82</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>44,93</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>28,34</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>28,42; 36,55</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>28,36; 37,41</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>41,83; 54,41</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>38,39; 51,38</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>28,41; 36,69</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>41,83; 54,41</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>28,36; 37,41</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>34,76; 42,49</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>21,33; 28,32</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>35,06; 62,99</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>37,3; 49,66</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>35,69; 43,71</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>35,06; 62,99</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>21,33; 28,32</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>32,52; 38,25</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>25,86; 31,39</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>40,04; 54,07</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>39,49; 48,09</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>32,84; 38,84</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>40,04; 54,07</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>25,86; 31,39</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>33,87</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>23,01</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>43,72</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>35,64</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>34,29</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>43,72</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>23,01</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>28,64</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>16,41</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>29,8</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>32,36</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>29,45</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>29,8</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>16,41</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>31,49</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>19,18</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>36,17</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>33,88</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>32,13</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>36,17</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>19,18</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>29,28; 38,48</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18,69; 28,24</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>36,71; 54,49</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>29,03; 45,67</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>29,83; 39,22</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>36,71; 54,49</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>18,69; 28,24</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>25,31; 32,22</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>13,34; 20,04</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>25,1; 36,86</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>27,4; 38,11</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>25,91; 33,08</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>25,1; 36,86</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>13,34; 20,04</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>28,58; 34,91</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>16,58; 22,12</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>31,45; 42,7</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>29,53; 39,13</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>29,19; 35,59</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>31,45; 42,7</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>16,58; 22,12</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>36,15</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>24,62</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>38,74</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>42,16</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>17,53</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>38,74</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>24,62</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>21,48</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>12,68</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>26,25</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>28,42</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>22,21</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>26,25</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>12,68</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>31,71</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>20,65</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>34,77</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>38,52</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>18,33</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>34,77</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>20,65</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>30,72; 44,65</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>17,01; 40,42</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>31,48; 48,51</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>34,82; 49,93</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>4,5; 38,19</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>31,48; 48,51</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>17,01; 40,42</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>17,03; 28,27</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>8,25; 18,78</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>18,67; 34,63</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>19,62; 39,44</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>17,46; 29,4</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>18,67; 34,63</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>8,25; 18,78</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>27,14; 37,98</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>15,26; 30,92</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>29,16; 43,15</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>33,27; 44,96</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>5,76; 34,09</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>29,16; 43,15</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>15,26; 30,92</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>34,68</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>21,52</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>40,37</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>45,03</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>35,23</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>40,37</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>21,52</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>29,33</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>13,62</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>26,83</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>33,29</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>19,85</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>26,83</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>13,62</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>32,29</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>17,57</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>33,54</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>38,99</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>26,86</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>33,54</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>17,57</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>30,4; 40,45</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16,25; 35,94</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>34,06; 48,82</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>37,37; 55,66</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>30,5; 42,42</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>34,06; 48,82</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>16,25; 35,94</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>26,52; 32,45</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10,7; 18,47</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>22,66; 33,12</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>27,22; 41,02</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>7,22; 30,32</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>22,66; 33,12</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>10,7; 18,47</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>29,59; 35,72</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>14,11; 23,05</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>29,75; 37,78</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>33,9; 44,51</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>16,27; 33,71</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>29,75; 37,78</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>14,11; 23,05</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>35,38</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17,69</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>42,88</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>55,05</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>36,71</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>42,88</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>17,69</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>23,48</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>11,15</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>21,66</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>26,93</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>20,28</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>21,66</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>11,15</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>28,05</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>13,58</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>32,07</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>37,38</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>25,76</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>32,07</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>13,58</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>29,65; 43,14</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11,22; 25,98</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>33,83; 54,51</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>42,06; 70,02</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>30,02; 46,06</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>33,83; 54,51</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>11,22; 25,98</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>19,92; 26,94</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>7,0; 15,66</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15,86; 28,83</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>20,83; 37,64</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>11,09; 25,34</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>15,86; 28,83</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>7,0; 15,66</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>25,04; 31,85</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>9,96; 17,56</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>26,52; 39,5</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>30,97; 45,46</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>17,3; 30,42</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>26,52; 39,5</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>9,96; 17,56</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>48,27</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>25,47</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>22,96</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>45,33</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>48,2</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>22,96</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>25,47</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>16,92</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>12,75</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>32,69</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>23,29</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>17,11</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>32,69</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>12,75</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>24,36</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>16,99</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>28,11</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>29,48</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>25,03</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>28,11</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>16,99</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>39,43; 62,62</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>15,54; 37,6</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>7,72; 56,47</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>32,88; 57,22</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>39,49; 65,44</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>7,72; 56,47</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>15,54; 37,6</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>14,51; 19,61</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>8,66; 18,23</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>15,53; 65,35</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>17,86; 31,23</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>14,82; 19,73</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>15,53; 65,35</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>8,66; 18,23</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>20,96; 28,54</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>13,02; 22,34</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>15,18; 47,74</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>24,33; 35,72</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>21,65; 29,92</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>15,18; 47,74</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>13,02; 22,34</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>35,54</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>25,47</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>42,69</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>43,94</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>31,77</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>42,69</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>25,47</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>26,02</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>17,06</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>30,79</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>32,55</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>23,26</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>30,79</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>17,06</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
+          <t>30,62</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>21,06</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>36,92</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
           <t>37,97</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>27,39</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>36,92</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>21,06</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>33,16; 38,42</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>22,93; 29,01</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>39,59; 46,53</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>40,29; 47,92</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>20,53; 36,92</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>39,59; 46,53</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>22,93; 29,01</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>24,75; 27,53</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>15,54; 18,88</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>28,0; 36,88</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>29,85; 35,69</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>16,87; 26,37</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>28,0; 36,88</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>15,54; 18,88</t>
-        </is>
-      </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
+          <t>29,29; 32,2</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>19,54; 22,88</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>34,66; 39,87</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
           <t>35,73; 40,48</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>22,52; 30,83</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>34,66; 39,87</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>19,54; 22,88</t>
         </is>
       </c>
     </row>
